--- a/prueba_carne_exportacion_inac.xlsx
+++ b/prueba_carne_exportacion_inac.xlsx
@@ -521,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1255"/>
+  <dimension ref="A1:C1256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13809,7 +13809,7 @@
         <v>45696</v>
       </c>
       <c r="C1207" t="n">
-        <v>4504.778702188513</v>
+        <v>4504.427543403585</v>
       </c>
     </row>
     <row r="1208">
@@ -13908,7 +13908,7 @@
         <v>45759</v>
       </c>
       <c r="C1216" t="n">
-        <v>4613.631231313416</v>
+        <v>4613.334378736027</v>
       </c>
     </row>
     <row r="1217">
@@ -13952,7 +13952,7 @@
         <v>45787</v>
       </c>
       <c r="C1220" t="n">
-        <v>4954.437660879973</v>
+        <v>4954.302667943106</v>
       </c>
     </row>
     <row r="1221">
@@ -13963,7 +13963,7 @@
         <v>45794</v>
       </c>
       <c r="C1221" t="n">
-        <v>5174.443915671795</v>
+        <v>5174.291958857231</v>
       </c>
     </row>
     <row r="1222">
@@ -13974,7 +13974,7 @@
         <v>45801</v>
       </c>
       <c r="C1222" t="n">
-        <v>5128.555019493048</v>
+        <v>5128.535790744784</v>
       </c>
     </row>
     <row r="1223">
@@ -14007,7 +14007,7 @@
         <v>45822</v>
       </c>
       <c r="C1225" t="n">
-        <v>4822.602098209899</v>
+        <v>4822.347990684365</v>
       </c>
     </row>
     <row r="1226">
@@ -14029,7 +14029,7 @@
         <v>45836</v>
       </c>
       <c r="C1227" t="n">
-        <v>4900.558893157396</v>
+        <v>4900.561365210901</v>
       </c>
     </row>
     <row r="1228">
@@ -14040,7 +14040,7 @@
         <v>45843</v>
       </c>
       <c r="C1228" t="n">
-        <v>5125.74583157891</v>
+        <v>5125.73535656101</v>
       </c>
     </row>
     <row r="1229">
@@ -14073,7 +14073,7 @@
         <v>45864</v>
       </c>
       <c r="C1231" t="n">
-        <v>5525.381064899667</v>
+        <v>5523.929039464611</v>
       </c>
     </row>
     <row r="1232">
@@ -14128,7 +14128,7 @@
         <v>45899</v>
       </c>
       <c r="C1236" t="n">
-        <v>5134.720152871063</v>
+        <v>5134.699568406319</v>
       </c>
     </row>
     <row r="1237">
@@ -14139,7 +14139,7 @@
         <v>45906</v>
       </c>
       <c r="C1237" t="n">
-        <v>4778.922439326135</v>
+        <v>4778.861596227044</v>
       </c>
     </row>
     <row r="1238">
@@ -14161,7 +14161,7 @@
         <v>45920</v>
       </c>
       <c r="C1239" t="n">
-        <v>5244.300467940754</v>
+        <v>5244.263521906121</v>
       </c>
     </row>
     <row r="1240">
@@ -14194,7 +14194,7 @@
         <v>45941</v>
       </c>
       <c r="C1242" t="n">
-        <v>4380.123881926145</v>
+        <v>4382.93067811017</v>
       </c>
     </row>
     <row r="1243">
@@ -14205,7 +14205,7 @@
         <v>45948</v>
       </c>
       <c r="C1243" t="n">
-        <v>4910.638665812863</v>
+        <v>4915.250178992453</v>
       </c>
     </row>
     <row r="1244">
@@ -14216,7 +14216,7 @@
         <v>45955</v>
       </c>
       <c r="C1244" t="n">
-        <v>5745.508606171124</v>
+        <v>5731.42879018817</v>
       </c>
     </row>
     <row r="1245">
@@ -14227,7 +14227,7 @@
         <v>45962</v>
       </c>
       <c r="C1245" t="n">
-        <v>4697.670543407366</v>
+        <v>4701.450932382905</v>
       </c>
     </row>
     <row r="1246">
@@ -14238,7 +14238,7 @@
         <v>45969</v>
       </c>
       <c r="C1246" t="n">
-        <v>5681.200475361449</v>
+        <v>5681.235106656455</v>
       </c>
     </row>
     <row r="1247">
@@ -14249,7 +14249,7 @@
         <v>45976</v>
       </c>
       <c r="C1247" t="n">
-        <v>5052.677668327349</v>
+        <v>5052.835251689098</v>
       </c>
     </row>
     <row r="1248">
@@ -14260,7 +14260,7 @@
         <v>45983</v>
       </c>
       <c r="C1248" t="n">
-        <v>6249.927577484906</v>
+        <v>6250.075942154863</v>
       </c>
     </row>
     <row r="1249">
@@ -14271,7 +14271,7 @@
         <v>45990</v>
       </c>
       <c r="C1249" t="n">
-        <v>5184.132403029777</v>
+        <v>5186.429446906466</v>
       </c>
     </row>
     <row r="1250">
@@ -14282,7 +14282,7 @@
         <v>45997</v>
       </c>
       <c r="C1250" t="n">
-        <v>5246.980608216398</v>
+        <v>5246.632686492407</v>
       </c>
     </row>
     <row r="1251">
@@ -14293,7 +14293,7 @@
         <v>46004</v>
       </c>
       <c r="C1251" t="n">
-        <v>4975.27252397166</v>
+        <v>4975.276878658583</v>
       </c>
     </row>
     <row r="1252">
@@ -14304,7 +14304,7 @@
         <v>46011</v>
       </c>
       <c r="C1252" t="n">
-        <v>5411.888745774953</v>
+        <v>5477.387991044317</v>
       </c>
     </row>
     <row r="1253">
@@ -14315,7 +14315,7 @@
         <v>46018</v>
       </c>
       <c r="C1253" t="n">
-        <v>5209.915847654335</v>
+        <v>5187.075876011143</v>
       </c>
     </row>
     <row r="1254">
@@ -14326,7 +14326,7 @@
         <v>46025</v>
       </c>
       <c r="C1254" t="n">
-        <v>5559.618459279745</v>
+        <v>5336.336336247563</v>
       </c>
     </row>
     <row r="1255">
@@ -14337,7 +14337,18 @@
         <v>46032</v>
       </c>
       <c r="C1255" t="n">
-        <v>6531.322670706361</v>
+        <v>6183.647163743958</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1256" s="2" t="n">
+        <v>46039</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>5861.528792929975</v>
       </c>
     </row>
   </sheetData>

--- a/prueba_carne_exportacion_inac.xlsx
+++ b/prueba_carne_exportacion_inac.xlsx
@@ -521,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1256"/>
+  <dimension ref="A1:C1257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13897,7 +13897,7 @@
         <v>45752</v>
       </c>
       <c r="C1215" t="n">
-        <v>4851.277327151963</v>
+        <v>4851.137724243416</v>
       </c>
     </row>
     <row r="1216">
@@ -14040,7 +14040,7 @@
         <v>45843</v>
       </c>
       <c r="C1228" t="n">
-        <v>5125.73535656101</v>
+        <v>5125.621659266998</v>
       </c>
     </row>
     <row r="1229">
@@ -14095,7 +14095,7 @@
         <v>45878</v>
       </c>
       <c r="C1233" t="n">
-        <v>5714.064530077872</v>
+        <v>5736.047182998518</v>
       </c>
     </row>
     <row r="1234">
@@ -14106,7 +14106,7 @@
         <v>45885</v>
       </c>
       <c r="C1234" t="n">
-        <v>5866.354548831026</v>
+        <v>5875.016256194833</v>
       </c>
     </row>
     <row r="1235">
@@ -14128,7 +14128,7 @@
         <v>45899</v>
       </c>
       <c r="C1236" t="n">
-        <v>5134.699568406319</v>
+        <v>5140.846164972522</v>
       </c>
     </row>
     <row r="1237">
@@ -14139,7 +14139,7 @@
         <v>45906</v>
       </c>
       <c r="C1237" t="n">
-        <v>4778.861596227044</v>
+        <v>4780.943822863808</v>
       </c>
     </row>
     <row r="1238">
@@ -14150,7 +14150,7 @@
         <v>45913</v>
       </c>
       <c r="C1238" t="n">
-        <v>5175.645810063183</v>
+        <v>5200.647947694132</v>
       </c>
     </row>
     <row r="1239">
@@ -14161,7 +14161,7 @@
         <v>45920</v>
       </c>
       <c r="C1239" t="n">
-        <v>5244.263521906121</v>
+        <v>5243.900275267898</v>
       </c>
     </row>
     <row r="1240">
@@ -14172,7 +14172,7 @@
         <v>45927</v>
       </c>
       <c r="C1240" t="n">
-        <v>5283.876474083454</v>
+        <v>5283.843636991293</v>
       </c>
     </row>
     <row r="1241">
@@ -14183,7 +14183,7 @@
         <v>45934</v>
       </c>
       <c r="C1241" t="n">
-        <v>4670.625180372041</v>
+        <v>4670.592825561907</v>
       </c>
     </row>
     <row r="1242">
@@ -14205,7 +14205,7 @@
         <v>45948</v>
       </c>
       <c r="C1243" t="n">
-        <v>4915.250178992453</v>
+        <v>4924.66694828281</v>
       </c>
     </row>
     <row r="1244">
@@ -14216,7 +14216,7 @@
         <v>45955</v>
       </c>
       <c r="C1244" t="n">
-        <v>5731.42879018817</v>
+        <v>5735.750693615199</v>
       </c>
     </row>
     <row r="1245">
@@ -14227,7 +14227,7 @@
         <v>45962</v>
       </c>
       <c r="C1245" t="n">
-        <v>4701.450932382905</v>
+        <v>4715.265844626661</v>
       </c>
     </row>
     <row r="1246">
@@ -14238,7 +14238,7 @@
         <v>45969</v>
       </c>
       <c r="C1246" t="n">
-        <v>5681.235106656455</v>
+        <v>5681.238834890486</v>
       </c>
     </row>
     <row r="1247">
@@ -14260,7 +14260,7 @@
         <v>45983</v>
       </c>
       <c r="C1248" t="n">
-        <v>6250.075942154863</v>
+        <v>6249.699008795765</v>
       </c>
     </row>
     <row r="1249">
@@ -14271,7 +14271,7 @@
         <v>45990</v>
       </c>
       <c r="C1249" t="n">
-        <v>5186.429446906466</v>
+        <v>5187.427537536514</v>
       </c>
     </row>
     <row r="1250">
@@ -14293,7 +14293,7 @@
         <v>46004</v>
       </c>
       <c r="C1251" t="n">
-        <v>4975.276878658583</v>
+        <v>4975.272642532218</v>
       </c>
     </row>
     <row r="1252">
@@ -14304,7 +14304,7 @@
         <v>46011</v>
       </c>
       <c r="C1252" t="n">
-        <v>5477.387991044317</v>
+        <v>5455.684019960237</v>
       </c>
     </row>
     <row r="1253">
@@ -14315,7 +14315,7 @@
         <v>46018</v>
       </c>
       <c r="C1253" t="n">
-        <v>5187.075876011143</v>
+        <v>5186.973405825122</v>
       </c>
     </row>
     <row r="1254">
@@ -14326,7 +14326,7 @@
         <v>46025</v>
       </c>
       <c r="C1254" t="n">
-        <v>5336.336336247563</v>
+        <v>5326.250512491223</v>
       </c>
     </row>
     <row r="1255">
@@ -14337,7 +14337,7 @@
         <v>46032</v>
       </c>
       <c r="C1255" t="n">
-        <v>6183.647163743958</v>
+        <v>5567.997944374526</v>
       </c>
     </row>
     <row r="1256">
@@ -14348,7 +14348,18 @@
         <v>46039</v>
       </c>
       <c r="C1256" t="n">
-        <v>5861.528792929975</v>
+        <v>5242.670714984689</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1257" s="2" t="n">
+        <v>46046</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>6310.966713461854</v>
       </c>
     </row>
   </sheetData>
